--- a/medicine/Enfance/Sylvaine_Jaoui/Sylvaine_Jaoui.xlsx
+++ b/medicine/Enfance/Sylvaine_Jaoui/Sylvaine_Jaoui.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvaine Jaoui, née le 17 janvier 1962 à Tunis et morte le 19 mai 2023[1] dans le 16e arrondissement de Paris[2], est une autrice française de livres pour la jeunesse.  Elle est notamment l'autrice de la série de romans Ma vie selon moi.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvaine Jaoui, née le 17 janvier 1962 à Tunis et morte le 19 mai 2023 dans le 16e arrondissement de Paris, est une autrice française de livres pour la jeunesse.  Elle est notamment l'autrice de la série de romans Ma vie selon moi.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvaine Jaoui est petite-fille d'imprimeur et fille de libraire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvaine Jaoui est petite-fille d'imprimeur et fille de libraire.
 Elle devient enseignante.   
 En 2010, elle publie son roman La préférée. 
 En 2011 sort le premier tome de la série Ma vie selon moi.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 2000 : Elles sont toutes folles, éd. l'École des loisirs.  (ISBN 2211059422)
@@ -670,15 +686,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Jacques Asklund[4] 2003 pour C'est pas compliqué l'amour, illustrations de Jean-Philippe Chabot
-Prix Chronos Littérature Suisse[5] 2006 pour Spinoza et moi , illustrations de Kitty Crowther
-Prix Chronos Littérature France[6] 2006 pour Spinoza et moi, illustrations de Kitty Crowther
-Prix Paille en Queue 2008[7] du Salon du Livre jeunesse de l'océan Indien,  pour La baby sitter, mon frère et moi, illustrations d'Alexandre Bonnefoy
-Prix Chronos France[6] 2011 pour Picasso ou rien
-Prix Chronos Suisse[5] 2011 pour Picasso ou rien
-Prix Gayant Lecture 2012[8] pour La Préférée</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Prix Jacques Asklund 2003 pour C'est pas compliqué l'amour, illustrations de Jean-Philippe Chabot
+Prix Chronos Littérature Suisse 2006 pour Spinoza et moi , illustrations de Kitty Crowther
+Prix Chronos Littérature France 2006 pour Spinoza et moi, illustrations de Kitty Crowther
+Prix Paille en Queue 2008 du Salon du Livre jeunesse de l'océan Indien,  pour La baby sitter, mon frère et moi, illustrations d'Alexandre Bonnefoy
+Prix Chronos France 2011 pour Picasso ou rien
+Prix Chronos Suisse 2011 pour Picasso ou rien
+Prix Gayant Lecture 2012 pour La Préférée</t>
         </is>
       </c>
     </row>
